--- a/team_specific_matrix/Bryan_A.xlsx
+++ b/team_specific_matrix/Bryan_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2375478927203065</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C2">
-        <v>0.475095785440613</v>
+        <v>0.4743589743589743</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.007662835249042145</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1647509578544061</v>
+        <v>0.1634615384615385</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1149425287356322</v>
+        <v>0.1185897435897436</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.007352941176470588</v>
+        <v>0.006172839506172839</v>
       </c>
       <c r="C3">
-        <v>0.06617647058823529</v>
+        <v>0.06790123456790123</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02205882352941177</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7279411764705882</v>
+        <v>0.7098765432098766</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1764705882352941</v>
+        <v>0.191358024691358</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02439024390243903</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.4634146341463415</v>
+        <v>0.5283018867924528</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.5121951219512195</v>
+        <v>0.4339622641509434</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03191489361702127</v>
+        <v>0.03056768558951965</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02127659574468085</v>
+        <v>0.01746724890829694</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06382978723404255</v>
+        <v>0.07423580786026202</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2978723404255319</v>
+        <v>0.2925764192139738</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02659574468085106</v>
+        <v>0.02183406113537118</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1648936170212766</v>
+        <v>0.1703056768558952</v>
       </c>
       <c r="R6">
-        <v>0.04787234042553191</v>
+        <v>0.05240174672489083</v>
       </c>
       <c r="S6">
-        <v>0.3457446808510639</v>
+        <v>0.3406113537117904</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1111111111111111</v>
+        <v>0.1045454545454545</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01666666666666667</v>
+        <v>0.01363636363636364</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.02222222222222222</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1388888888888889</v>
+        <v>0.15</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02777777777777778</v>
+        <v>0.02727272727272727</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1777777777777778</v>
+        <v>0.1727272727272727</v>
       </c>
       <c r="R7">
-        <v>0.08333333333333333</v>
+        <v>0.07727272727272727</v>
       </c>
       <c r="S7">
-        <v>0.4222222222222222</v>
+        <v>0.4181818181818182</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07932692307692307</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01923076923076923</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.00202020202020202</v>
       </c>
       <c r="F8">
-        <v>0.05288461538461538</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0673076923076923</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.009615384615384616</v>
+        <v>0.01414141414141414</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1923076923076923</v>
+        <v>0.1838383838383838</v>
       </c>
       <c r="R8">
-        <v>0.1129807692307692</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="S8">
-        <v>0.4663461538461539</v>
+        <v>0.4585858585858586</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.11875</v>
+        <v>0.1185567010309278</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0125</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08125</v>
+        <v>0.08247422680412371</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05</v>
+        <v>0.05154639175257732</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.00625</v>
+        <v>0.005154639175257732</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.25</v>
+        <v>0.2216494845360825</v>
       </c>
       <c r="R9">
-        <v>0.06875000000000001</v>
+        <v>0.06185567010309279</v>
       </c>
       <c r="S9">
-        <v>0.4125</v>
+        <v>0.4381443298969072</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1061552185548617</v>
+        <v>0.1016702977487291</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02230151650312221</v>
+        <v>0.02396514161220044</v>
       </c>
       <c r="E10">
-        <v>0.0008920606601248885</v>
+        <v>0.0007262164124909223</v>
       </c>
       <c r="F10">
-        <v>0.05263157894736842</v>
+        <v>0.05301379811183732</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08385370205173952</v>
+        <v>0.08496732026143791</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01248884924174844</v>
+        <v>0.0130718954248366</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2140945584299732</v>
+        <v>0.2127814088598402</v>
       </c>
       <c r="R10">
-        <v>0.08920606601248884</v>
+        <v>0.09658678286129267</v>
       </c>
       <c r="S10">
-        <v>0.4183764495985727</v>
+        <v>0.4132171387073348</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1747572815533981</v>
+        <v>0.1803713527851459</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07766990291262135</v>
+        <v>0.07957559681697612</v>
       </c>
       <c r="K11">
-        <v>0.2491909385113269</v>
+        <v>0.246684350132626</v>
       </c>
       <c r="L11">
-        <v>0.4789644012944984</v>
+        <v>0.4748010610079575</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01941747572815534</v>
+        <v>0.01856763925729443</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6832298136645962</v>
+        <v>0.7098445595854922</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.15527950310559</v>
+        <v>0.1450777202072539</v>
       </c>
       <c r="K12">
-        <v>0.02484472049689441</v>
+        <v>0.02590673575129534</v>
       </c>
       <c r="L12">
-        <v>0.08695652173913043</v>
+        <v>0.07253886010362694</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04968944099378882</v>
+        <v>0.04663212435233161</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.631578947368421</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3421052631578947</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02631578947368421</v>
+        <v>0.04651162790697674</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.05095541401273886</v>
+        <v>0.04102564102564103</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1082802547770701</v>
+        <v>0.1230769230769231</v>
       </c>
       <c r="I15">
-        <v>0.06369426751592357</v>
+        <v>0.07179487179487179</v>
       </c>
       <c r="J15">
-        <v>0.4012738853503185</v>
+        <v>0.4</v>
       </c>
       <c r="K15">
-        <v>0.09554140127388536</v>
+        <v>0.08205128205128205</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.006369426751592357</v>
+        <v>0.01025641025641026</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03821656050955414</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2356687898089172</v>
+        <v>0.241025641025641</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02564102564102564</v>
+        <v>0.02116402116402116</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.141025641025641</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="I16">
-        <v>0.05128205128205128</v>
+        <v>0.06878306878306878</v>
       </c>
       <c r="J16">
-        <v>0.4551282051282051</v>
+        <v>0.4391534391534391</v>
       </c>
       <c r="K16">
-        <v>0.108974358974359</v>
+        <v>0.1005291005291005</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02564102564102564</v>
+        <v>0.02645502645502645</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.0576923076923077</v>
+        <v>0.0582010582010582</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1346153846153846</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03080568720379147</v>
+        <v>0.02994011976047904</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1895734597156398</v>
+        <v>0.1836327345309381</v>
       </c>
       <c r="I17">
-        <v>0.07819905213270142</v>
+        <v>0.07984031936127745</v>
       </c>
       <c r="J17">
-        <v>0.438388625592417</v>
+        <v>0.4391217564870259</v>
       </c>
       <c r="K17">
-        <v>0.07109004739336493</v>
+        <v>0.0718562874251497</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.03080568720379147</v>
+        <v>0.02794411177644711</v>
       </c>
       <c r="N17">
-        <v>0.002369668246445498</v>
+        <v>0.001996007984031936</v>
       </c>
       <c r="O17">
-        <v>0.04028436018957346</v>
+        <v>0.04191616766467066</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1184834123222749</v>
+        <v>0.12375249500998</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02222222222222222</v>
+        <v>0.02202643171806168</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2055555555555555</v>
+        <v>0.1894273127753304</v>
       </c>
       <c r="I18">
-        <v>0.09444444444444444</v>
+        <v>0.08370044052863436</v>
       </c>
       <c r="J18">
-        <v>0.4333333333333333</v>
+        <v>0.4361233480176211</v>
       </c>
       <c r="K18">
-        <v>0.08333333333333333</v>
+        <v>0.08370044052863436</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02777777777777778</v>
+        <v>0.02202643171806168</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04444444444444445</v>
+        <v>0.05286343612334802</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08888888888888889</v>
+        <v>0.1101321585903084</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02252614641995173</v>
+        <v>0.02108036890645586</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2075623491552695</v>
+        <v>0.2015810276679842</v>
       </c>
       <c r="I19">
-        <v>0.0756234915526951</v>
+        <v>0.07312252964426877</v>
       </c>
       <c r="J19">
-        <v>0.3644408688656476</v>
+        <v>0.3735177865612648</v>
       </c>
       <c r="K19">
-        <v>0.1214802896218825</v>
+        <v>0.1231884057971015</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01528559935639582</v>
+        <v>0.01383399209486166</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05068382944489139</v>
+        <v>0.05072463768115942</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1423974255832663</v>
+        <v>0.1429512516469038</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Bryan_A.xlsx
+++ b/team_specific_matrix/Bryan_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2307692307692308</v>
+        <v>0.2291666666666667</v>
       </c>
       <c r="C2">
-        <v>0.4743589743589743</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01282051282051282</v>
+        <v>0.01488095238095238</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1634615384615385</v>
+        <v>0.1607142857142857</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1185897435897436</v>
+        <v>0.1160714285714286</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006172839506172839</v>
+        <v>0.005681818181818182</v>
       </c>
       <c r="C3">
-        <v>0.06790123456790123</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02469135802469136</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7098765432098766</v>
+        <v>0.7159090909090909</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.191358024691358</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03773584905660377</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5283018867924528</v>
+        <v>0.5344827586206896</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4339622641509434</v>
+        <v>0.4310344827586207</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03056768558951965</v>
+        <v>0.0321285140562249</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01746724890829694</v>
+        <v>0.01606425702811245</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07423580786026202</v>
+        <v>0.06827309236947791</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2925764192139738</v>
+        <v>0.3132530120481928</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02183406113537118</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1703056768558952</v>
+        <v>0.1686746987951807</v>
       </c>
       <c r="R6">
-        <v>0.05240174672489083</v>
+        <v>0.04819277108433735</v>
       </c>
       <c r="S6">
-        <v>0.3406113537117904</v>
+        <v>0.3293172690763052</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1045454545454545</v>
+        <v>0.1012658227848101</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01363636363636364</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03636363636363636</v>
+        <v>0.0379746835443038</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.15</v>
+        <v>0.1476793248945148</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02727272727272727</v>
+        <v>0.02953586497890295</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1727272727272727</v>
+        <v>0.1687763713080169</v>
       </c>
       <c r="R7">
-        <v>0.07727272727272727</v>
+        <v>0.0759493670886076</v>
       </c>
       <c r="S7">
-        <v>0.4181818181818182</v>
+        <v>0.4261603375527426</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08888888888888889</v>
+        <v>0.08990825688073395</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0202020202020202</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="E8">
-        <v>0.00202020202020202</v>
+        <v>0.001834862385321101</v>
       </c>
       <c r="F8">
-        <v>0.05454545454545454</v>
+        <v>0.05137614678899083</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06666666666666667</v>
+        <v>0.06972477064220184</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01414141414141414</v>
+        <v>0.01467889908256881</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1838383838383838</v>
+        <v>0.1834862385321101</v>
       </c>
       <c r="R8">
-        <v>0.1111111111111111</v>
+        <v>0.108256880733945</v>
       </c>
       <c r="S8">
-        <v>0.4585858585858586</v>
+        <v>0.4623853211009175</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1185567010309278</v>
+        <v>0.1040723981900453</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02061855670103093</v>
+        <v>0.01809954751131222</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08247422680412371</v>
+        <v>0.08144796380090498</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05154639175257732</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.005154639175257732</v>
+        <v>0.004524886877828055</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2216494845360825</v>
+        <v>0.2262443438914027</v>
       </c>
       <c r="R9">
-        <v>0.06185567010309279</v>
+        <v>0.06334841628959276</v>
       </c>
       <c r="S9">
-        <v>0.4381443298969072</v>
+        <v>0.4434389140271493</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1016702977487291</v>
+        <v>0.09928151534944481</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02396514161220044</v>
+        <v>0.0248203788373612</v>
       </c>
       <c r="E10">
-        <v>0.0007262164124909223</v>
+        <v>0.0006531678641410843</v>
       </c>
       <c r="F10">
-        <v>0.05301379811183732</v>
+        <v>0.05290659699542782</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08496732026143791</v>
+        <v>0.08556499020248204</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0130718954248366</v>
+        <v>0.0124101894186806</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2127814088598402</v>
+        <v>0.2135858915741345</v>
       </c>
       <c r="R10">
-        <v>0.09658678286129267</v>
+        <v>0.09601567602873938</v>
       </c>
       <c r="S10">
-        <v>0.4132171387073348</v>
+        <v>0.4147615937295885</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1803713527851459</v>
+        <v>0.1770573566084788</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07957559681697612</v>
+        <v>0.07730673316708229</v>
       </c>
       <c r="K11">
-        <v>0.246684350132626</v>
+        <v>0.2394014962593516</v>
       </c>
       <c r="L11">
-        <v>0.4748010610079575</v>
+        <v>0.4887780548628429</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01856763925729443</v>
+        <v>0.01745635910224439</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7098445595854922</v>
+        <v>0.6926605504587156</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1450777202072539</v>
+        <v>0.1422018348623853</v>
       </c>
       <c r="K12">
-        <v>0.02590673575129534</v>
+        <v>0.02293577981651376</v>
       </c>
       <c r="L12">
-        <v>0.07253886010362694</v>
+        <v>0.09174311926605505</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04663212435233161</v>
+        <v>0.05045871559633028</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6046511627906976</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3488372093023256</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04651162790697674</v>
+        <v>0.04444444444444445</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.04102564102564103</v>
+        <v>0.04128440366972477</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1230769230769231</v>
+        <v>0.1376146788990826</v>
       </c>
       <c r="I15">
-        <v>0.07179487179487179</v>
+        <v>0.07339449541284404</v>
       </c>
       <c r="J15">
-        <v>0.4</v>
+        <v>0.3853211009174312</v>
       </c>
       <c r="K15">
-        <v>0.08205128205128205</v>
+        <v>0.08256880733944955</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01025641025641026</v>
+        <v>0.01376146788990826</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03076923076923077</v>
+        <v>0.03211009174311927</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.241025641025641</v>
+        <v>0.2339449541284404</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02116402116402116</v>
+        <v>0.02427184466019417</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1428571428571428</v>
+        <v>0.1504854368932039</v>
       </c>
       <c r="I16">
-        <v>0.06878306878306878</v>
+        <v>0.06796116504854369</v>
       </c>
       <c r="J16">
-        <v>0.4391534391534391</v>
+        <v>0.4368932038834951</v>
       </c>
       <c r="K16">
-        <v>0.1005291005291005</v>
+        <v>0.1019417475728155</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02645502645502645</v>
+        <v>0.02427184466019417</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.0582010582010582</v>
+        <v>0.05339805825242718</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1428571428571428</v>
+        <v>0.1407766990291262</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02994011976047904</v>
+        <v>0.02888086642599278</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1836327345309381</v>
+        <v>0.1823104693140794</v>
       </c>
       <c r="I17">
-        <v>0.07984031936127745</v>
+        <v>0.0776173285198556</v>
       </c>
       <c r="J17">
-        <v>0.4391217564870259</v>
+        <v>0.4512635379061372</v>
       </c>
       <c r="K17">
-        <v>0.0718562874251497</v>
+        <v>0.06678700361010831</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02794411177644711</v>
+        <v>0.02527075812274368</v>
       </c>
       <c r="N17">
-        <v>0.001996007984031936</v>
+        <v>0.001805054151624549</v>
       </c>
       <c r="O17">
-        <v>0.04191616766467066</v>
+        <v>0.03971119133574007</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.12375249500998</v>
+        <v>0.1263537906137184</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02202643171806168</v>
+        <v>0.02016129032258064</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1894273127753304</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="I18">
-        <v>0.08370044052863436</v>
+        <v>0.07661290322580645</v>
       </c>
       <c r="J18">
-        <v>0.4361233480176211</v>
+        <v>0.4556451612903226</v>
       </c>
       <c r="K18">
-        <v>0.08370044052863436</v>
+        <v>0.0846774193548387</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02202643171806168</v>
+        <v>0.02016129032258064</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05286343612334802</v>
+        <v>0.04838709677419355</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1101321585903084</v>
+        <v>0.1008064516129032</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02108036890645586</v>
+        <v>0.02088305489260143</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2015810276679842</v>
+        <v>0.1992840095465394</v>
       </c>
       <c r="I19">
-        <v>0.07312252964426877</v>
+        <v>0.07875894988066826</v>
       </c>
       <c r="J19">
-        <v>0.3735177865612648</v>
+        <v>0.3723150357995227</v>
       </c>
       <c r="K19">
-        <v>0.1231884057971015</v>
+        <v>0.1193317422434367</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01383399209486166</v>
+        <v>0.01312649164677804</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05072463768115942</v>
+        <v>0.05369928400954654</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1429512516469038</v>
+        <v>0.1426014319809069</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Bryan_A.xlsx
+++ b/team_specific_matrix/Bryan_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2291666666666667</v>
+        <v>0.2314285714285714</v>
       </c>
       <c r="C2">
-        <v>0.4791666666666667</v>
+        <v>0.4742857142857143</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01488095238095238</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1607142857142857</v>
+        <v>0.16</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1160714285714286</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005681818181818182</v>
+        <v>0.005524861878453038</v>
       </c>
       <c r="C3">
-        <v>0.06818181818181818</v>
+        <v>0.06629834254143646</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02272727272727273</v>
+        <v>0.02209944751381215</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7159090909090909</v>
+        <v>0.7237569060773481</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1875</v>
+        <v>0.1823204419889503</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03448275862068965</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5344827586206896</v>
+        <v>0.55</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4310344827586207</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0321285140562249</v>
+        <v>0.03125</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01606425702811245</v>
+        <v>0.015625</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06827309236947791</v>
+        <v>0.06640625</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3132530120481928</v>
+        <v>0.30859375</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02409638554216868</v>
+        <v>0.0234375</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1686746987951807</v>
+        <v>0.1640625</v>
       </c>
       <c r="R6">
-        <v>0.04819277108433735</v>
+        <v>0.05078125</v>
       </c>
       <c r="S6">
-        <v>0.3293172690763052</v>
+        <v>0.33984375</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1012658227848101</v>
+        <v>0.1037344398340249</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01265822784810127</v>
+        <v>0.01244813278008299</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0379746835443038</v>
+        <v>0.03734439834024896</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1476793248945148</v>
+        <v>0.1493775933609958</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02953586497890295</v>
+        <v>0.02904564315352697</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1687763713080169</v>
+        <v>0.1701244813278008</v>
       </c>
       <c r="R7">
-        <v>0.0759493670886076</v>
+        <v>0.07468879668049792</v>
       </c>
       <c r="S7">
-        <v>0.4261603375527426</v>
+        <v>0.4232365145228216</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08990825688073395</v>
+        <v>0.08896797153024912</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01834862385321101</v>
+        <v>0.01779359430604982</v>
       </c>
       <c r="E8">
-        <v>0.001834862385321101</v>
+        <v>0.001779359430604982</v>
       </c>
       <c r="F8">
-        <v>0.05137614678899083</v>
+        <v>0.05160142348754448</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06972477064220184</v>
+        <v>0.0693950177935943</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01467889908256881</v>
+        <v>0.01423487544483986</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1834862385321101</v>
+        <v>0.1832740213523132</v>
       </c>
       <c r="R8">
-        <v>0.108256880733945</v>
+        <v>0.1085409252669039</v>
       </c>
       <c r="S8">
-        <v>0.4623853211009175</v>
+        <v>0.4644128113879004</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1040723981900453</v>
+        <v>0.1043478260869565</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01809954751131222</v>
+        <v>0.01739130434782609</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08144796380090498</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05882352941176471</v>
+        <v>0.05652173913043478</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.004524886877828055</v>
+        <v>0.004347826086956522</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2262443438914027</v>
+        <v>0.2260869565217391</v>
       </c>
       <c r="R9">
-        <v>0.06334841628959276</v>
+        <v>0.06086956521739131</v>
       </c>
       <c r="S9">
-        <v>0.4434389140271493</v>
+        <v>0.4434782608695652</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09928151534944481</v>
+        <v>0.1005056890012642</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0248203788373612</v>
+        <v>0.02528445006321112</v>
       </c>
       <c r="E10">
-        <v>0.0006531678641410843</v>
+        <v>0.0006321112515802782</v>
       </c>
       <c r="F10">
-        <v>0.05290659699542782</v>
+        <v>0.05246523388116309</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08556499020248204</v>
+        <v>0.08596713021491782</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0124101894186806</v>
+        <v>0.01201011378002529</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2135858915741345</v>
+        <v>0.2149178255372946</v>
       </c>
       <c r="R10">
-        <v>0.09601567602873938</v>
+        <v>0.09671302149178256</v>
       </c>
       <c r="S10">
-        <v>0.4147615937295885</v>
+        <v>0.411504424778761</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1770573566084788</v>
+        <v>0.1731707317073171</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07730673316708229</v>
+        <v>0.08048780487804878</v>
       </c>
       <c r="K11">
-        <v>0.2394014962593516</v>
+        <v>0.2414634146341463</v>
       </c>
       <c r="L11">
-        <v>0.4887780548628429</v>
+        <v>0.4878048780487805</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01745635910224439</v>
+        <v>0.01707317073170732</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6926605504587156</v>
+        <v>0.6936936936936937</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1422018348623853</v>
+        <v>0.1441441441441441</v>
       </c>
       <c r="K12">
-        <v>0.02293577981651376</v>
+        <v>0.02252252252252252</v>
       </c>
       <c r="L12">
-        <v>0.09174311926605505</v>
+        <v>0.09009009009009009</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.05045871559633028</v>
+        <v>0.04954954954954955</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5777777777777777</v>
+        <v>0.5510204081632653</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3777777777777778</v>
+        <v>0.4081632653061225</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04444444444444445</v>
+        <v>0.04081632653061224</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.04128440366972477</v>
+        <v>0.04035874439461883</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1376146788990826</v>
+        <v>0.1345291479820628</v>
       </c>
       <c r="I15">
-        <v>0.07339449541284404</v>
+        <v>0.07174887892376682</v>
       </c>
       <c r="J15">
-        <v>0.3853211009174312</v>
+        <v>0.3901345291479821</v>
       </c>
       <c r="K15">
-        <v>0.08256880733944955</v>
+        <v>0.08071748878923767</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01376146788990826</v>
+        <v>0.01345291479820628</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03211009174311927</v>
+        <v>0.03139013452914798</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2339449541284404</v>
+        <v>0.2376681614349776</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02427184466019417</v>
+        <v>0.02336448598130841</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1504854368932039</v>
+        <v>0.1495327102803738</v>
       </c>
       <c r="I16">
-        <v>0.06796116504854369</v>
+        <v>0.07009345794392523</v>
       </c>
       <c r="J16">
-        <v>0.4368932038834951</v>
+        <v>0.4392523364485981</v>
       </c>
       <c r="K16">
-        <v>0.1019417475728155</v>
+        <v>0.102803738317757</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02427184466019417</v>
+        <v>0.02336448598130841</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05339805825242718</v>
+        <v>0.0514018691588785</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1407766990291262</v>
+        <v>0.1401869158878505</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02888086642599278</v>
+        <v>0.02792321116928447</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1823104693140794</v>
+        <v>0.1797556719022688</v>
       </c>
       <c r="I17">
-        <v>0.0776173285198556</v>
+        <v>0.07678883071553229</v>
       </c>
       <c r="J17">
-        <v>0.4512635379061372</v>
+        <v>0.450261780104712</v>
       </c>
       <c r="K17">
-        <v>0.06678700361010831</v>
+        <v>0.06806282722513089</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02527075812274368</v>
+        <v>0.02443280977312391</v>
       </c>
       <c r="N17">
-        <v>0.001805054151624549</v>
+        <v>0.001745200698080279</v>
       </c>
       <c r="O17">
-        <v>0.03971119133574007</v>
+        <v>0.04013961605584642</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1263537906137184</v>
+        <v>0.1308900523560209</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02016129032258064</v>
+        <v>0.01945525291828794</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1935483870967742</v>
+        <v>0.2062256809338521</v>
       </c>
       <c r="I18">
-        <v>0.07661290322580645</v>
+        <v>0.07392996108949416</v>
       </c>
       <c r="J18">
-        <v>0.4556451612903226</v>
+        <v>0.443579766536965</v>
       </c>
       <c r="K18">
-        <v>0.0846774193548387</v>
+        <v>0.08171206225680934</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02016129032258064</v>
+        <v>0.01945525291828794</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04838709677419355</v>
+        <v>0.05058365758754864</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1008064516129032</v>
+        <v>0.1050583657587549</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02088305489260143</v>
+        <v>0.0207852193995381</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1992840095465394</v>
+        <v>0.1980369515011547</v>
       </c>
       <c r="I19">
-        <v>0.07875894988066826</v>
+        <v>0.08025404157043881</v>
       </c>
       <c r="J19">
-        <v>0.3723150357995227</v>
+        <v>0.3724018475750577</v>
       </c>
       <c r="K19">
-        <v>0.1193317422434367</v>
+        <v>0.1172055427251732</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01312649164677804</v>
+        <v>0.01501154734411085</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05369928400954654</v>
+        <v>0.05311778290993072</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1426014319809069</v>
+        <v>0.1431870669745959</v>
       </c>
     </row>
   </sheetData>
